--- a/Project2800_M. R. Smith(2018).xlsx
+++ b/Project2800_M. R. Smith(2018).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74728E6-9BBA-6945-8977-3B03E505DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E301E-871B-FD49-9D21-ED4D84D07DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{0F51A715-DBAA-0D4C-8E68-27C7561491A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F51A715-DBAA-0D4C-8E68-27C7561491A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Project2800" sheetId="2" r:id="rId1"/>
@@ -808,17 +808,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,16 +839,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>368299</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>771071</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,8 +871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="304800"/>
-          <a:ext cx="7772400" cy="4857750"/>
+          <a:off x="10502899" y="297543"/>
+          <a:ext cx="10542815" cy="6689054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F798AD-06CA-C74E-9636-3B067E8E2EE2}">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="56" workbookViewId="0">
-      <selection activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,13 +1215,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1277,7 +1276,7 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1475,7 +1474,7 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1530,7 +1529,7 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1574,7 +1573,7 @@
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1673,8 +1672,8 @@
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>5</v>
+      <c r="C42" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1683,7 @@
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1794,8 +1793,8 @@
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>0</v>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,8 +1914,8 @@
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>0</v>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1979,10 +1978,10 @@
         <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,7 +2002,7 @@
       <c r="B72" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2014,7 +2013,7 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2223,7 +2222,7 @@
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2243,10 +2242,10 @@
         <v>137</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,8 +2376,8 @@
       <c r="B106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>0</v>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,7 +2387,7 @@
       <c r="B107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2410,7 +2409,7 @@
       <c r="B109" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2419,10 +2418,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,7 +2497,7 @@
       <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2597,7 +2596,7 @@
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2663,7 +2662,7 @@
       <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2694,9 +2693,9 @@
         <v>95</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2718,7 +2717,7 @@
       <c r="B137" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2782,10 +2781,10 @@
         <v>87</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2793,10 +2792,10 @@
         <v>86</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2817,7 +2816,7 @@
       <c r="B146" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2828,7 +2827,7 @@
       <c r="B147" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2839,8 +2838,8 @@
       <c r="B148" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>5</v>
+      <c r="C148" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2870,10 +2869,10 @@
         <v>79</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2925,9 +2924,9 @@
         <v>74</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2936,10 +2935,10 @@
         <v>73</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3015,7 +3014,7 @@
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3037,7 +3036,7 @@
       <c r="B166" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3048,7 +3047,7 @@
       <c r="B167" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3103,7 +3102,7 @@
       <c r="B172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3125,7 +3124,7 @@
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3378,7 +3377,7 @@
       <c r="B197" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3389,7 +3388,7 @@
       <c r="B198" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3400,7 +3399,7 @@
       <c r="B199" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3422,7 +3421,7 @@
       <c r="B201" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +3432,7 @@
       <c r="B202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3497,10 +3496,10 @@
         <v>22</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3510,7 +3509,7 @@
       <c r="B209" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3543,7 +3542,7 @@
       <c r="B212" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3565,7 +3564,7 @@
       <c r="B214" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3576,7 +3575,7 @@
       <c r="B215" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3609,7 +3608,7 @@
       <c r="B218" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3653,7 +3652,7 @@
       <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3675,7 +3674,7 @@
       <c r="B224" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3686,7 +3685,7 @@
       <c r="B225" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3695,10 +3694,10 @@
         <v>2</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
